--- a/Code/Results/Cases/Case_2_132/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_132/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006209677851418</v>
+        <v>1.055109983661837</v>
       </c>
       <c r="D2">
-        <v>1.024412417353759</v>
+        <v>1.056223900627459</v>
       </c>
       <c r="E2">
-        <v>1.021020460312609</v>
+        <v>1.061033423298675</v>
       </c>
       <c r="F2">
-        <v>1.029031922926045</v>
+        <v>1.069197292762999</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044330195391337</v>
+        <v>1.039435015973638</v>
       </c>
       <c r="J2">
-        <v>1.028206231665272</v>
+        <v>1.060118561548566</v>
       </c>
       <c r="K2">
-        <v>1.035541810692104</v>
+        <v>1.058962199609864</v>
       </c>
       <c r="L2">
-        <v>1.032194512868148</v>
+        <v>1.063758583645706</v>
       </c>
       <c r="M2">
-        <v>1.040101087637061</v>
+        <v>1.071900443808422</v>
       </c>
       <c r="N2">
-        <v>1.029666402451156</v>
+        <v>1.061624051503264</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01393497146726</v>
+        <v>1.05665208065883</v>
       </c>
       <c r="D3">
-        <v>1.030138762139433</v>
+        <v>1.057379343462143</v>
       </c>
       <c r="E3">
-        <v>1.026977124413411</v>
+        <v>1.062300387550669</v>
       </c>
       <c r="F3">
-        <v>1.035442514695913</v>
+        <v>1.070539574357999</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046308546899268</v>
+        <v>1.039742735066519</v>
       </c>
       <c r="J3">
-        <v>1.034052831400115</v>
+        <v>1.061309342210756</v>
       </c>
       <c r="K3">
-        <v>1.040400005025949</v>
+        <v>1.059930368674904</v>
       </c>
       <c r="L3">
-        <v>1.037276082450025</v>
+        <v>1.064838949099772</v>
       </c>
       <c r="M3">
-        <v>1.045641129415026</v>
+        <v>1.073057544486944</v>
       </c>
       <c r="N3">
-        <v>1.035521305028221</v>
+        <v>1.062816523210578</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018783988836109</v>
+        <v>1.057648547783036</v>
       </c>
       <c r="D4">
-        <v>1.033736627178301</v>
+        <v>1.058125668478533</v>
       </c>
       <c r="E4">
-        <v>1.030730567506769</v>
+        <v>1.063119854407849</v>
       </c>
       <c r="F4">
-        <v>1.039477114546016</v>
+        <v>1.071407415427298</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047537935606266</v>
+        <v>1.039939911084884</v>
       </c>
       <c r="J4">
-        <v>1.037719104617238</v>
+        <v>1.062078092263129</v>
       </c>
       <c r="K4">
-        <v>1.043444242198258</v>
+        <v>1.060554937912298</v>
       </c>
       <c r="L4">
-        <v>1.04047172651788</v>
+        <v>1.065537116502639</v>
       </c>
       <c r="M4">
-        <v>1.049121334823764</v>
+        <v>1.073805017163598</v>
       </c>
       <c r="N4">
-        <v>1.039192784773839</v>
+        <v>1.063586364976203</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020788683756179</v>
+        <v>1.058067141407053</v>
       </c>
       <c r="D5">
-        <v>1.035224781781694</v>
+        <v>1.058439111072918</v>
       </c>
       <c r="E5">
-        <v>1.032285645124853</v>
+        <v>1.063464280182639</v>
       </c>
       <c r="F5">
-        <v>1.041147549352869</v>
+        <v>1.071772091993664</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048043146584152</v>
+        <v>1.04002234128499</v>
       </c>
       <c r="J5">
-        <v>1.039233900168723</v>
+        <v>1.062400857747331</v>
       </c>
       <c r="K5">
-        <v>1.044701457149143</v>
+        <v>1.060817055943632</v>
       </c>
       <c r="L5">
-        <v>1.041794186062329</v>
+        <v>1.065830414207714</v>
       </c>
       <c r="M5">
-        <v>1.050560680468501</v>
+        <v>1.074118960232562</v>
       </c>
       <c r="N5">
-        <v>1.040709731508757</v>
+        <v>1.063909588824414</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021123352556023</v>
+        <v>1.058137406502522</v>
       </c>
       <c r="D6">
-        <v>1.035473256277837</v>
+        <v>1.058491721271269</v>
       </c>
       <c r="E6">
-        <v>1.032545443993739</v>
+        <v>1.063522106327987</v>
       </c>
       <c r="F6">
-        <v>1.041426555173157</v>
+        <v>1.071833313330127</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048127306484729</v>
+        <v>1.040036154596367</v>
       </c>
       <c r="J6">
-        <v>1.039486727253189</v>
+        <v>1.062455027194153</v>
       </c>
       <c r="K6">
-        <v>1.044911257882595</v>
+        <v>1.060861040396437</v>
       </c>
       <c r="L6">
-        <v>1.042015033701181</v>
+        <v>1.065879647871627</v>
       </c>
       <c r="M6">
-        <v>1.050800997130087</v>
+        <v>1.074171655520027</v>
       </c>
       <c r="N6">
-        <v>1.040962917636683</v>
+        <v>1.063963835198064</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018810906057427</v>
+        <v>1.057654142304195</v>
       </c>
       <c r="D7">
-        <v>1.033756606110613</v>
+        <v>1.058129857935997</v>
       </c>
       <c r="E7">
-        <v>1.030751434763309</v>
+        <v>1.063124456943564</v>
       </c>
       <c r="F7">
-        <v>1.039499534165016</v>
+        <v>1.07141228889103</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047544731275129</v>
+        <v>1.039941014337033</v>
       </c>
       <c r="J7">
-        <v>1.037739447681861</v>
+        <v>1.062082406703309</v>
       </c>
       <c r="K7">
-        <v>1.04346112838559</v>
+        <v>1.060558442112725</v>
       </c>
       <c r="L7">
-        <v>1.040489478309744</v>
+        <v>1.065541036388622</v>
       </c>
       <c r="M7">
-        <v>1.049140659040557</v>
+        <v>1.073809213237627</v>
       </c>
       <c r="N7">
-        <v>1.039213156727947</v>
+        <v>1.063590685543382</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00885275990979</v>
+        <v>1.055631431314546</v>
       </c>
       <c r="D8">
-        <v>1.026370755279349</v>
+        <v>1.05661466473425</v>
       </c>
       <c r="E8">
-        <v>1.023055248670874</v>
+        <v>1.061461673506043</v>
       </c>
       <c r="F8">
-        <v>1.031222825305375</v>
+        <v>1.069651072038054</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045009622679352</v>
+        <v>1.0395394134663</v>
       </c>
       <c r="J8">
-        <v>1.030207242370318</v>
+        <v>1.060521360108059</v>
       </c>
       <c r="K8">
-        <v>1.037204983762054</v>
+        <v>1.059289793005454</v>
       </c>
       <c r="L8">
-        <v>1.033931721726704</v>
+        <v>1.064123887180407</v>
       </c>
       <c r="M8">
-        <v>1.041995841719013</v>
+        <v>1.07229175271401</v>
       </c>
       <c r="N8">
-        <v>1.031670254820906</v>
+        <v>1.062027422082913</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9900572642699967</v>
+        <v>1.052056306300109</v>
       </c>
       <c r="D9">
-        <v>1.012466301376825</v>
+        <v>1.053934361095671</v>
       </c>
       <c r="E9">
-        <v>1.008656674942666</v>
+        <v>1.058528815086144</v>
       </c>
       <c r="F9">
-        <v>1.015696670634171</v>
+        <v>1.066541962572081</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040127838114695</v>
+        <v>1.038816822162628</v>
       </c>
       <c r="J9">
-        <v>1.015966078679955</v>
+        <v>1.057756837343677</v>
       </c>
       <c r="K9">
-        <v>1.025360308359403</v>
+        <v>1.057039523560742</v>
       </c>
       <c r="L9">
-        <v>1.021610847778475</v>
+        <v>1.061619610916271</v>
       </c>
       <c r="M9">
-        <v>1.028540112093361</v>
+        <v>1.069608024964468</v>
       </c>
       <c r="N9">
-        <v>1.017408867044618</v>
+        <v>1.05925897337911</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9765282173433286</v>
+        <v>1.049665122826519</v>
       </c>
       <c r="D10">
-        <v>1.002493685695981</v>
+        <v>1.052140256335079</v>
       </c>
       <c r="E10">
-        <v>0.9983944616236868</v>
+        <v>1.056571412427316</v>
       </c>
       <c r="F10">
-        <v>1.004599008763651</v>
+        <v>1.064465131480744</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03655358392703</v>
+        <v>1.038324964176235</v>
       </c>
       <c r="J10">
-        <v>1.005705065557917</v>
+        <v>1.055904227850795</v>
       </c>
       <c r="K10">
-        <v>1.016818061373745</v>
+        <v>1.055529161792107</v>
       </c>
       <c r="L10">
-        <v>1.012792765196472</v>
+        <v>1.059945086737904</v>
       </c>
       <c r="M10">
-        <v>1.018885720217529</v>
+        <v>1.06781201803012</v>
       </c>
       <c r="N10">
-        <v>1.007133282106993</v>
+        <v>1.057403732968251</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9703909474127851</v>
+        <v>1.048627766211048</v>
       </c>
       <c r="D11">
-        <v>0.9979811884114225</v>
+        <v>1.051361609021401</v>
       </c>
       <c r="E11">
-        <v>0.9937672497176681</v>
+        <v>1.055723262193132</v>
       </c>
       <c r="F11">
-        <v>0.9995866074475542</v>
+        <v>1.063564799936879</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034919298013218</v>
+        <v>1.038109558855991</v>
       </c>
       <c r="J11">
-        <v>1.001049568123115</v>
+        <v>1.05509967476707</v>
       </c>
       <c r="K11">
-        <v>1.01294127724971</v>
+        <v>1.054872683378277</v>
       </c>
       <c r="L11">
-        <v>1.008807671618236</v>
+        <v>1.059218755993161</v>
       </c>
       <c r="M11">
-        <v>1.014516323959586</v>
+        <v>1.067032636607379</v>
       </c>
       <c r="N11">
-        <v>1.00247117333184</v>
+        <v>1.056598037326863</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.968065170404699</v>
+        <v>1.048242142373272</v>
       </c>
       <c r="D12">
-        <v>0.9962731377471438</v>
+        <v>1.051072110491333</v>
       </c>
       <c r="E12">
-        <v>0.9920183244016185</v>
+        <v>1.055408128739113</v>
       </c>
       <c r="F12">
-        <v>0.9976907268848156</v>
+        <v>1.063230212819784</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034298175659721</v>
+        <v>1.0380291810057</v>
       </c>
       <c r="J12">
-        <v>0.9992853783235438</v>
+        <v>1.054800466491975</v>
       </c>
       <c r="K12">
-        <v>1.011472088566393</v>
+        <v>1.054628459938331</v>
       </c>
       <c r="L12">
-        <v>1.007300055129198</v>
+        <v>1.058948771619306</v>
       </c>
       <c r="M12">
-        <v>1.012862303056462</v>
+        <v>1.066742878793895</v>
       </c>
       <c r="N12">
-        <v>1.000704478180398</v>
+        <v>1.056298404141698</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9685662182217669</v>
+        <v>1.048324873873143</v>
       </c>
       <c r="D13">
-        <v>0.9966410119745844</v>
+        <v>1.051134221409556</v>
       </c>
       <c r="E13">
-        <v>0.9923948854876563</v>
+        <v>1.055475730214191</v>
       </c>
       <c r="F13">
-        <v>0.9980989922123062</v>
+        <v>1.063301990407963</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03443206411245</v>
+        <v>1.038046438954883</v>
       </c>
       <c r="J13">
-        <v>0.9996654366875282</v>
+        <v>1.054864664147079</v>
       </c>
       <c r="K13">
-        <v>1.011788597798839</v>
+        <v>1.05468086389127</v>
       </c>
       <c r="L13">
-        <v>1.007624723297718</v>
+        <v>1.059006692987269</v>
       </c>
       <c r="M13">
-        <v>1.013218546711981</v>
+        <v>1.066805044723909</v>
       </c>
       <c r="N13">
-        <v>1.001085076270853</v>
+        <v>1.056362692964836</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9701996651300081</v>
+        <v>1.048595896666957</v>
       </c>
       <c r="D14">
-        <v>0.9978406683485538</v>
+        <v>1.051337684609768</v>
       </c>
       <c r="E14">
-        <v>0.9936233146995646</v>
+        <v>1.055697215084998</v>
       </c>
       <c r="F14">
-        <v>0.9994306064446632</v>
+        <v>1.063537146240532</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034868249645902</v>
+        <v>1.038102922290542</v>
       </c>
       <c r="J14">
-        <v>1.000904471140802</v>
+        <v>1.055074949530041</v>
       </c>
       <c r="K14">
-        <v>1.012820444204702</v>
+        <v>1.054852503536834</v>
       </c>
       <c r="L14">
-        <v>1.008683624493055</v>
+        <v>1.059196442961975</v>
       </c>
       <c r="M14">
-        <v>1.014380251657952</v>
+        <v>1.067008690490311</v>
       </c>
       <c r="N14">
-        <v>1.002325870295169</v>
+        <v>1.056573276977161</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9711998389240442</v>
+        <v>1.04876284227569</v>
       </c>
       <c r="D15">
-        <v>0.9985755005862281</v>
+        <v>1.051463008493509</v>
       </c>
       <c r="E15">
-        <v>0.994376109110805</v>
+        <v>1.055833666783045</v>
       </c>
       <c r="F15">
-        <v>1.000246450986877</v>
+        <v>1.06368201160778</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035135098539563</v>
+        <v>1.038137674883016</v>
       </c>
       <c r="J15">
-        <v>1.001663155239192</v>
+        <v>1.055204465198605</v>
       </c>
       <c r="K15">
-        <v>1.013452253654994</v>
+        <v>1.054958206123523</v>
       </c>
       <c r="L15">
-        <v>1.009332346546952</v>
+        <v>1.05931332848979</v>
       </c>
       <c r="M15">
-        <v>1.015091819332599</v>
+        <v>1.067134128632753</v>
       </c>
       <c r="N15">
-        <v>1.003085631812002</v>
+        <v>1.056702976572831</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.976929302636671</v>
+        <v>1.049733926725833</v>
       </c>
       <c r="D16">
-        <v>1.00278884787029</v>
+        <v>1.05219189444204</v>
       </c>
       <c r="E16">
-        <v>0.9986974727113569</v>
+        <v>1.056627688655714</v>
       </c>
       <c r="F16">
-        <v>1.0049270604662</v>
+        <v>1.06452486087472</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036660133698044</v>
+        <v>1.038339208600797</v>
       </c>
       <c r="J16">
-        <v>1.006009311805636</v>
+        <v>1.055957573073383</v>
       </c>
       <c r="K16">
-        <v>1.017071400437579</v>
+        <v>1.055572677365259</v>
       </c>
       <c r="L16">
-        <v>1.013053537554103</v>
+        <v>1.059993264149626</v>
       </c>
       <c r="M16">
-        <v>1.019171503507574</v>
+        <v>1.067863706739294</v>
       </c>
       <c r="N16">
-        <v>1.00743796041928</v>
+        <v>1.057457153947174</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9804457368241521</v>
+        <v>1.050342531570598</v>
       </c>
       <c r="D17">
-        <v>1.005377942889621</v>
+        <v>1.052648622669146</v>
       </c>
       <c r="E17">
-        <v>1.001357268569186</v>
+        <v>1.057125598089295</v>
       </c>
       <c r="F17">
-        <v>1.007805690605143</v>
+        <v>1.065053272518164</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037592851881666</v>
+        <v>1.038464974035965</v>
       </c>
       <c r="J17">
-        <v>1.008676665031903</v>
+        <v>1.056429340917086</v>
       </c>
       <c r="K17">
-        <v>1.019292329807971</v>
+        <v>1.055957450788487</v>
       </c>
       <c r="L17">
-        <v>1.015341541729273</v>
+        <v>1.060419431531435</v>
       </c>
       <c r="M17">
-        <v>1.021678228133639</v>
+        <v>1.06832089307266</v>
       </c>
       <c r="N17">
-        <v>1.010109101593079</v>
+        <v>1.057929591755327</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9824701954281142</v>
+        <v>1.050697332147125</v>
       </c>
       <c r="D18">
-        <v>1.006869573648689</v>
+        <v>1.052914852371527</v>
       </c>
       <c r="E18">
-        <v>1.002891158711722</v>
+        <v>1.057415964444862</v>
       </c>
       <c r="F18">
-        <v>1.009464988706262</v>
+        <v>1.065361385200783</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03812861281872</v>
+        <v>1.038538096798516</v>
       </c>
       <c r="J18">
-        <v>1.010212216479751</v>
+        <v>1.056704287779364</v>
       </c>
       <c r="K18">
-        <v>1.020570773578126</v>
+        <v>1.056181643517034</v>
       </c>
       <c r="L18">
-        <v>1.016660172909048</v>
+        <v>1.060667887411073</v>
       </c>
       <c r="M18">
-        <v>1.023122319952021</v>
+        <v>1.068587398624079</v>
       </c>
       <c r="N18">
-        <v>1.011646833700113</v>
+        <v>1.058204929073686</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9831560867295024</v>
+        <v>1.050818278306702</v>
       </c>
       <c r="D19">
-        <v>1.007375112545468</v>
+        <v>1.053005600789765</v>
       </c>
       <c r="E19">
-        <v>1.003411276522939</v>
+        <v>1.057514962563039</v>
       </c>
       <c r="F19">
-        <v>1.010027498453238</v>
+        <v>1.065466426735597</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038309919455309</v>
+        <v>1.038562990125869</v>
       </c>
       <c r="J19">
-        <v>1.010732446813502</v>
+        <v>1.056797999196029</v>
       </c>
       <c r="K19">
-        <v>1.021003877711725</v>
+        <v>1.056258047046763</v>
       </c>
       <c r="L19">
-        <v>1.017107156735782</v>
+        <v>1.060752584179921</v>
       </c>
       <c r="M19">
-        <v>1.023611732979992</v>
+        <v>1.068678242567503</v>
       </c>
       <c r="N19">
-        <v>1.012167802820609</v>
+        <v>1.058298773571313</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9800712383948698</v>
+        <v>1.050277253577185</v>
       </c>
       <c r="D20">
-        <v>1.005102094155241</v>
+        <v>1.052599637899284</v>
       </c>
       <c r="E20">
-        <v>1.001073727852255</v>
+        <v>1.057072182928384</v>
       </c>
       <c r="F20">
-        <v>1.007498904576376</v>
+        <v>1.06499658942971</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037493643500287</v>
+        <v>1.038451504822412</v>
       </c>
       <c r="J20">
-        <v>1.008392600482115</v>
+        <v>1.056378748255815</v>
       </c>
       <c r="K20">
-        <v>1.019055818769197</v>
+        <v>1.055916193011007</v>
       </c>
       <c r="L20">
-        <v>1.015097723289353</v>
+        <v>1.060373720287816</v>
       </c>
       <c r="M20">
-        <v>1.021411164062233</v>
+        <v>1.06827185825871</v>
       </c>
       <c r="N20">
-        <v>1.009824633639047</v>
+        <v>1.057878927246674</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9697199654808936</v>
+        <v>1.04851609565866</v>
       </c>
       <c r="D21">
-        <v>0.9974883039334737</v>
+        <v>1.051277777384332</v>
       </c>
       <c r="E21">
-        <v>0.993262428324479</v>
+        <v>1.055631995912138</v>
       </c>
       <c r="F21">
-        <v>0.9990394448625644</v>
+        <v>1.06346790328284</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034740201696021</v>
+        <v>1.038086299495582</v>
       </c>
       <c r="J21">
-        <v>1.000540596941544</v>
+        <v>1.05501303575773</v>
       </c>
       <c r="K21">
-        <v>1.012517417922018</v>
+        <v>1.054801970419877</v>
       </c>
       <c r="L21">
-        <v>1.008372580302658</v>
+        <v>1.05914057168536</v>
       </c>
       <c r="M21">
-        <v>1.014039038135288</v>
+        <v>1.066948729134289</v>
       </c>
       <c r="N21">
-        <v>1.001961479352812</v>
+        <v>1.056511275280192</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.962942340415253</v>
+        <v>1.047407025788812</v>
       </c>
       <c r="D22">
-        <v>0.9925149739392007</v>
+        <v>1.050445081687378</v>
       </c>
       <c r="E22">
-        <v>0.9881750406587351</v>
+        <v>1.054725954245154</v>
       </c>
       <c r="F22">
-        <v>0.9935218743040979</v>
+        <v>1.062505806306683</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032926929039453</v>
+        <v>1.037854557655327</v>
       </c>
       <c r="J22">
-        <v>0.9953998208460292</v>
+        <v>1.054152263570355</v>
       </c>
       <c r="K22">
-        <v>1.008236183403133</v>
+        <v>1.054099224086835</v>
       </c>
       <c r="L22">
-        <v>1.003984449209002</v>
+        <v>1.058364124311884</v>
       </c>
       <c r="M22">
-        <v>1.009222765826732</v>
+        <v>1.066115313298913</v>
       </c>
       <c r="N22">
-        <v>0.9968134027655859</v>
+        <v>1.05564928069758</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9665623783072823</v>
+        <v>1.047995134617439</v>
       </c>
       <c r="D23">
-        <v>0.9951700904305041</v>
+        <v>1.050886661982674</v>
       </c>
       <c r="E23">
-        <v>0.9908896114246474</v>
+        <v>1.055206316925836</v>
       </c>
       <c r="F23">
-        <v>0.9964667747505984</v>
+        <v>1.063015924355589</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033896352827064</v>
+        <v>1.037977610277258</v>
       </c>
       <c r="J23">
-        <v>0.998145491667204</v>
+        <v>1.054608775990912</v>
       </c>
       <c r="K23">
-        <v>1.010522794092711</v>
+        <v>1.054471972603898</v>
       </c>
       <c r="L23">
-        <v>1.006326680820242</v>
+        <v>1.058775841361026</v>
       </c>
       <c r="M23">
-        <v>1.011794109162094</v>
+        <v>1.06655726802654</v>
       </c>
       <c r="N23">
-        <v>0.9995629727542594</v>
+        <v>1.056106441418136</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9802405400623632</v>
+        <v>1.050306750474734</v>
       </c>
       <c r="D24">
-        <v>1.005226795431715</v>
+        <v>1.052621772540473</v>
       </c>
       <c r="E24">
-        <v>1.001201901659819</v>
+        <v>1.057096319113111</v>
       </c>
       <c r="F24">
-        <v>1.007637588818109</v>
+        <v>1.065022202389562</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037538496999528</v>
+        <v>1.038457591703667</v>
       </c>
       <c r="J24">
-        <v>1.008521019443453</v>
+        <v>1.056401609604421</v>
       </c>
       <c r="K24">
-        <v>1.01916274024027</v>
+        <v>1.055934836363771</v>
       </c>
       <c r="L24">
-        <v>1.015207943382816</v>
+        <v>1.060394375603333</v>
       </c>
       <c r="M24">
-        <v>1.021531894368727</v>
+        <v>1.068294015485954</v>
       </c>
       <c r="N24">
-        <v>1.00995323497004</v>
+        <v>1.057901821061018</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9950795283037289</v>
+        <v>1.052981895972063</v>
       </c>
       <c r="D25">
-        <v>1.016176427047912</v>
+        <v>1.054628538219917</v>
       </c>
       <c r="E25">
-        <v>1.012487888921437</v>
+        <v>1.059287390987335</v>
       </c>
       <c r="F25">
-        <v>1.019833065956437</v>
+        <v>1.067346439980018</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041442961284411</v>
+        <v>1.039005407542354</v>
       </c>
       <c r="J25">
-        <v>1.019773628259102</v>
+        <v>1.058473198482194</v>
       </c>
       <c r="K25">
-        <v>1.028528709568473</v>
+        <v>1.057623047146733</v>
       </c>
       <c r="L25">
-        <v>1.024895390895256</v>
+        <v>1.062267890550889</v>
       </c>
       <c r="M25">
-        <v>1.032131107484925</v>
+        <v>1.070303019977433</v>
       </c>
       <c r="N25">
-        <v>1.0212218237809</v>
+        <v>1.059976351832612</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_132/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_132/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.055109983661837</v>
+        <v>1.006209677851418</v>
       </c>
       <c r="D2">
-        <v>1.056223900627459</v>
+        <v>1.024412417353759</v>
       </c>
       <c r="E2">
-        <v>1.061033423298675</v>
+        <v>1.021020460312609</v>
       </c>
       <c r="F2">
-        <v>1.069197292762999</v>
+        <v>1.029031922926045</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039435015973638</v>
+        <v>1.044330195391337</v>
       </c>
       <c r="J2">
-        <v>1.060118561548566</v>
+        <v>1.028206231665272</v>
       </c>
       <c r="K2">
-        <v>1.058962199609864</v>
+        <v>1.035541810692104</v>
       </c>
       <c r="L2">
-        <v>1.063758583645706</v>
+        <v>1.032194512868148</v>
       </c>
       <c r="M2">
-        <v>1.071900443808422</v>
+        <v>1.04010108763706</v>
       </c>
       <c r="N2">
-        <v>1.061624051503264</v>
+        <v>1.029666402451156</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05665208065883</v>
+        <v>1.013934971467261</v>
       </c>
       <c r="D3">
-        <v>1.057379343462143</v>
+        <v>1.030138762139433</v>
       </c>
       <c r="E3">
-        <v>1.062300387550669</v>
+        <v>1.026977124413411</v>
       </c>
       <c r="F3">
-        <v>1.070539574357999</v>
+        <v>1.035442514695913</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039742735066519</v>
+        <v>1.046308546899268</v>
       </c>
       <c r="J3">
-        <v>1.061309342210756</v>
+        <v>1.034052831400115</v>
       </c>
       <c r="K3">
-        <v>1.059930368674904</v>
+        <v>1.040400005025949</v>
       </c>
       <c r="L3">
-        <v>1.064838949099772</v>
+        <v>1.037276082450025</v>
       </c>
       <c r="M3">
-        <v>1.073057544486944</v>
+        <v>1.045641129415026</v>
       </c>
       <c r="N3">
-        <v>1.062816523210578</v>
+        <v>1.035521305028221</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057648547783036</v>
+        <v>1.018783988836109</v>
       </c>
       <c r="D4">
-        <v>1.058125668478533</v>
+        <v>1.033736627178301</v>
       </c>
       <c r="E4">
-        <v>1.063119854407849</v>
+        <v>1.030730567506769</v>
       </c>
       <c r="F4">
-        <v>1.071407415427298</v>
+        <v>1.039477114546017</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039939911084884</v>
+        <v>1.047537935606267</v>
       </c>
       <c r="J4">
-        <v>1.062078092263129</v>
+        <v>1.037719104617238</v>
       </c>
       <c r="K4">
-        <v>1.060554937912298</v>
+        <v>1.043444242198258</v>
       </c>
       <c r="L4">
-        <v>1.065537116502639</v>
+        <v>1.04047172651788</v>
       </c>
       <c r="M4">
-        <v>1.073805017163598</v>
+        <v>1.049121334823765</v>
       </c>
       <c r="N4">
-        <v>1.063586364976203</v>
+        <v>1.03919278477384</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.058067141407053</v>
+        <v>1.020788683756179</v>
       </c>
       <c r="D5">
-        <v>1.058439111072918</v>
+        <v>1.035224781781694</v>
       </c>
       <c r="E5">
-        <v>1.063464280182639</v>
+        <v>1.032285645124853</v>
       </c>
       <c r="F5">
-        <v>1.071772091993664</v>
+        <v>1.041147549352869</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04002234128499</v>
+        <v>1.048043146584153</v>
       </c>
       <c r="J5">
-        <v>1.062400857747331</v>
+        <v>1.039233900168723</v>
       </c>
       <c r="K5">
-        <v>1.060817055943632</v>
+        <v>1.044701457149143</v>
       </c>
       <c r="L5">
-        <v>1.065830414207714</v>
+        <v>1.041794186062329</v>
       </c>
       <c r="M5">
-        <v>1.074118960232562</v>
+        <v>1.0505606804685</v>
       </c>
       <c r="N5">
-        <v>1.063909588824414</v>
+        <v>1.040709731508757</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.058137406502522</v>
+        <v>1.021123352556024</v>
       </c>
       <c r="D6">
-        <v>1.058491721271269</v>
+        <v>1.035473256277838</v>
       </c>
       <c r="E6">
-        <v>1.063522106327987</v>
+        <v>1.03254544399374</v>
       </c>
       <c r="F6">
-        <v>1.071833313330127</v>
+        <v>1.041426555173158</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040036154596367</v>
+        <v>1.048127306484729</v>
       </c>
       <c r="J6">
-        <v>1.062455027194153</v>
+        <v>1.03948672725319</v>
       </c>
       <c r="K6">
-        <v>1.060861040396437</v>
+        <v>1.044911257882596</v>
       </c>
       <c r="L6">
-        <v>1.065879647871627</v>
+        <v>1.042015033701181</v>
       </c>
       <c r="M6">
-        <v>1.074171655520027</v>
+        <v>1.050800997130087</v>
       </c>
       <c r="N6">
-        <v>1.063963835198064</v>
+        <v>1.040962917636684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057654142304195</v>
+        <v>1.018810906057426</v>
       </c>
       <c r="D7">
-        <v>1.058129857935997</v>
+        <v>1.033756606110612</v>
       </c>
       <c r="E7">
-        <v>1.063124456943564</v>
+        <v>1.030751434763309</v>
       </c>
       <c r="F7">
-        <v>1.07141228889103</v>
+        <v>1.039499534165015</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039941014337033</v>
+        <v>1.047544731275128</v>
       </c>
       <c r="J7">
-        <v>1.062082406703309</v>
+        <v>1.03773944768186</v>
       </c>
       <c r="K7">
-        <v>1.060558442112725</v>
+        <v>1.043461128385589</v>
       </c>
       <c r="L7">
-        <v>1.065541036388622</v>
+        <v>1.040489478309743</v>
       </c>
       <c r="M7">
-        <v>1.073809213237627</v>
+        <v>1.049140659040557</v>
       </c>
       <c r="N7">
-        <v>1.063590685543382</v>
+        <v>1.039213156727946</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055631431314546</v>
+        <v>1.008852759909791</v>
       </c>
       <c r="D8">
-        <v>1.05661466473425</v>
+        <v>1.02637075527935</v>
       </c>
       <c r="E8">
-        <v>1.061461673506043</v>
+        <v>1.023055248670874</v>
       </c>
       <c r="F8">
-        <v>1.069651072038054</v>
+        <v>1.031222825305375</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0395394134663</v>
+        <v>1.045009622679352</v>
       </c>
       <c r="J8">
-        <v>1.060521360108059</v>
+        <v>1.030207242370319</v>
       </c>
       <c r="K8">
-        <v>1.059289793005454</v>
+        <v>1.037204983762055</v>
       </c>
       <c r="L8">
-        <v>1.064123887180407</v>
+        <v>1.033931721726705</v>
       </c>
       <c r="M8">
-        <v>1.07229175271401</v>
+        <v>1.041995841719013</v>
       </c>
       <c r="N8">
-        <v>1.062027422082913</v>
+        <v>1.031670254820907</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.052056306300109</v>
+        <v>0.9900572642699963</v>
       </c>
       <c r="D9">
-        <v>1.053934361095671</v>
+        <v>1.012466301376824</v>
       </c>
       <c r="E9">
-        <v>1.058528815086144</v>
+        <v>1.008656674942666</v>
       </c>
       <c r="F9">
-        <v>1.066541962572081</v>
+        <v>1.015696670634171</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038816822162628</v>
+        <v>1.040127838114695</v>
       </c>
       <c r="J9">
-        <v>1.057756837343677</v>
+        <v>1.015966078679955</v>
       </c>
       <c r="K9">
-        <v>1.057039523560742</v>
+        <v>1.025360308359403</v>
       </c>
       <c r="L9">
-        <v>1.061619610916271</v>
+        <v>1.021610847778475</v>
       </c>
       <c r="M9">
-        <v>1.069608024964468</v>
+        <v>1.028540112093361</v>
       </c>
       <c r="N9">
-        <v>1.05925897337911</v>
+        <v>1.017408867044618</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.049665122826519</v>
+        <v>0.9765282173433294</v>
       </c>
       <c r="D10">
-        <v>1.052140256335079</v>
+        <v>1.002493685695982</v>
       </c>
       <c r="E10">
-        <v>1.056571412427316</v>
+        <v>0.9983944616236875</v>
       </c>
       <c r="F10">
-        <v>1.064465131480744</v>
+        <v>1.004599008763652</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038324964176235</v>
+        <v>1.03655358392703</v>
       </c>
       <c r="J10">
-        <v>1.055904227850795</v>
+        <v>1.005705065557918</v>
       </c>
       <c r="K10">
-        <v>1.055529161792107</v>
+        <v>1.016818061373746</v>
       </c>
       <c r="L10">
-        <v>1.059945086737904</v>
+        <v>1.012792765196473</v>
       </c>
       <c r="M10">
-        <v>1.06781201803012</v>
+        <v>1.01888572021753</v>
       </c>
       <c r="N10">
-        <v>1.057403732968251</v>
+        <v>1.007133282106994</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.048627766211048</v>
+        <v>0.9703909474127866</v>
       </c>
       <c r="D11">
-        <v>1.051361609021401</v>
+        <v>0.9979811884114237</v>
       </c>
       <c r="E11">
-        <v>1.055723262193132</v>
+        <v>0.9937672497176682</v>
       </c>
       <c r="F11">
-        <v>1.063564799936879</v>
+        <v>0.9995866074475546</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038109558855991</v>
+        <v>1.034919298013219</v>
       </c>
       <c r="J11">
-        <v>1.05509967476707</v>
+        <v>1.001049568123116</v>
       </c>
       <c r="K11">
-        <v>1.054872683378277</v>
+        <v>1.012941277249711</v>
       </c>
       <c r="L11">
-        <v>1.059218755993161</v>
+        <v>1.008807671618237</v>
       </c>
       <c r="M11">
-        <v>1.067032636607379</v>
+        <v>1.014516323959587</v>
       </c>
       <c r="N11">
-        <v>1.056598037326863</v>
+        <v>1.002471173331841</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.048242142373272</v>
+        <v>0.9680651704046974</v>
       </c>
       <c r="D12">
-        <v>1.051072110491333</v>
+        <v>0.9962731377471428</v>
       </c>
       <c r="E12">
-        <v>1.055408128739113</v>
+        <v>0.9920183244016179</v>
       </c>
       <c r="F12">
-        <v>1.063230212819784</v>
+        <v>0.9976907268848146</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0380291810057</v>
+        <v>1.03429817565972</v>
       </c>
       <c r="J12">
-        <v>1.054800466491975</v>
+        <v>0.9992853783235424</v>
       </c>
       <c r="K12">
-        <v>1.054628459938331</v>
+        <v>1.011472088566392</v>
       </c>
       <c r="L12">
-        <v>1.058948771619306</v>
+        <v>1.007300055129197</v>
       </c>
       <c r="M12">
-        <v>1.066742878793895</v>
+        <v>1.012862303056461</v>
       </c>
       <c r="N12">
-        <v>1.056298404141698</v>
+        <v>1.000704478180397</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.048324873873143</v>
+        <v>0.9685662182217671</v>
       </c>
       <c r="D13">
-        <v>1.051134221409556</v>
+        <v>0.9966410119745847</v>
       </c>
       <c r="E13">
-        <v>1.055475730214191</v>
+        <v>0.9923948854876564</v>
       </c>
       <c r="F13">
-        <v>1.063301990407963</v>
+        <v>0.9980989922123064</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038046438954883</v>
+        <v>1.03443206411245</v>
       </c>
       <c r="J13">
-        <v>1.054864664147079</v>
+        <v>0.9996654366875282</v>
       </c>
       <c r="K13">
-        <v>1.05468086389127</v>
+        <v>1.011788597798838</v>
       </c>
       <c r="L13">
-        <v>1.059006692987269</v>
+        <v>1.007624723297718</v>
       </c>
       <c r="M13">
-        <v>1.066805044723909</v>
+        <v>1.013218546711982</v>
       </c>
       <c r="N13">
-        <v>1.056362692964836</v>
+        <v>1.001085076270853</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.048595896666957</v>
+        <v>0.9701996651300059</v>
       </c>
       <c r="D14">
-        <v>1.051337684609768</v>
+        <v>0.9978406683485518</v>
       </c>
       <c r="E14">
-        <v>1.055697215084998</v>
+        <v>0.9936233146995626</v>
       </c>
       <c r="F14">
-        <v>1.063537146240532</v>
+        <v>0.9994306064446605</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038102922290542</v>
+        <v>1.034868249645901</v>
       </c>
       <c r="J14">
-        <v>1.055074949530041</v>
+        <v>1.0009044711408</v>
       </c>
       <c r="K14">
-        <v>1.054852503536834</v>
+        <v>1.0128204442047</v>
       </c>
       <c r="L14">
-        <v>1.059196442961975</v>
+        <v>1.008683624493054</v>
       </c>
       <c r="M14">
-        <v>1.067008690490311</v>
+        <v>1.01438025165795</v>
       </c>
       <c r="N14">
-        <v>1.056573276977161</v>
+        <v>1.002325870295167</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04876284227569</v>
+        <v>0.9711998389240445</v>
       </c>
       <c r="D15">
-        <v>1.051463008493509</v>
+        <v>0.9985755005862279</v>
       </c>
       <c r="E15">
-        <v>1.055833666783045</v>
+        <v>0.994376109110805</v>
       </c>
       <c r="F15">
-        <v>1.06368201160778</v>
+        <v>1.000246450986878</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038137674883016</v>
+        <v>1.035135098539563</v>
       </c>
       <c r="J15">
-        <v>1.055204465198605</v>
+        <v>1.001663155239193</v>
       </c>
       <c r="K15">
-        <v>1.054958206123523</v>
+        <v>1.013452253654994</v>
       </c>
       <c r="L15">
-        <v>1.05931332848979</v>
+        <v>1.009332346546952</v>
       </c>
       <c r="M15">
-        <v>1.067134128632753</v>
+        <v>1.015091819332599</v>
       </c>
       <c r="N15">
-        <v>1.056702976572831</v>
+        <v>1.003085631812002</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.049733926725833</v>
+        <v>0.9769293026366717</v>
       </c>
       <c r="D16">
-        <v>1.05219189444204</v>
+        <v>1.00278884787029</v>
       </c>
       <c r="E16">
-        <v>1.056627688655714</v>
+        <v>0.9986974727113576</v>
       </c>
       <c r="F16">
-        <v>1.06452486087472</v>
+        <v>1.004927060466201</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038339208600797</v>
+        <v>1.036660133698045</v>
       </c>
       <c r="J16">
-        <v>1.055957573073383</v>
+        <v>1.006009311805637</v>
       </c>
       <c r="K16">
-        <v>1.055572677365259</v>
+        <v>1.01707140043758</v>
       </c>
       <c r="L16">
-        <v>1.059993264149626</v>
+        <v>1.013053537554104</v>
       </c>
       <c r="M16">
-        <v>1.067863706739294</v>
+        <v>1.019171503507575</v>
       </c>
       <c r="N16">
-        <v>1.057457153947174</v>
+        <v>1.007437960419281</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.050342531570598</v>
+        <v>0.9804457368241523</v>
       </c>
       <c r="D17">
-        <v>1.052648622669146</v>
+        <v>1.005377942889621</v>
       </c>
       <c r="E17">
-        <v>1.057125598089295</v>
+        <v>1.001357268569186</v>
       </c>
       <c r="F17">
-        <v>1.065053272518164</v>
+        <v>1.007805690605143</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038464974035965</v>
+        <v>1.037592851881666</v>
       </c>
       <c r="J17">
-        <v>1.056429340917086</v>
+        <v>1.008676665031903</v>
       </c>
       <c r="K17">
-        <v>1.055957450788487</v>
+        <v>1.019292329807971</v>
       </c>
       <c r="L17">
-        <v>1.060419431531435</v>
+        <v>1.015341541729273</v>
       </c>
       <c r="M17">
-        <v>1.06832089307266</v>
+        <v>1.021678228133639</v>
       </c>
       <c r="N17">
-        <v>1.057929591755327</v>
+        <v>1.010109101593079</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.050697332147125</v>
+        <v>0.9824701954281154</v>
       </c>
       <c r="D18">
-        <v>1.052914852371527</v>
+        <v>1.00686957364869</v>
       </c>
       <c r="E18">
-        <v>1.057415964444862</v>
+        <v>1.002891158711723</v>
       </c>
       <c r="F18">
-        <v>1.065361385200783</v>
+        <v>1.009464988706263</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038538096798516</v>
+        <v>1.03812861281872</v>
       </c>
       <c r="J18">
-        <v>1.056704287779364</v>
+        <v>1.010212216479752</v>
       </c>
       <c r="K18">
-        <v>1.056181643517034</v>
+        <v>1.020570773578127</v>
       </c>
       <c r="L18">
-        <v>1.060667887411073</v>
+        <v>1.016660172909049</v>
       </c>
       <c r="M18">
-        <v>1.068587398624079</v>
+        <v>1.023122319952022</v>
       </c>
       <c r="N18">
-        <v>1.058204929073686</v>
+        <v>1.011646833700114</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.050818278306702</v>
+        <v>0.9831560867295024</v>
       </c>
       <c r="D19">
-        <v>1.053005600789765</v>
+        <v>1.007375112545468</v>
       </c>
       <c r="E19">
-        <v>1.057514962563039</v>
+        <v>1.003411276522939</v>
       </c>
       <c r="F19">
-        <v>1.065466426735597</v>
+        <v>1.010027498453238</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038562990125869</v>
+        <v>1.038309919455309</v>
       </c>
       <c r="J19">
-        <v>1.056797999196029</v>
+        <v>1.010732446813502</v>
       </c>
       <c r="K19">
-        <v>1.056258047046763</v>
+        <v>1.021003877711726</v>
       </c>
       <c r="L19">
-        <v>1.060752584179921</v>
+        <v>1.017107156735782</v>
       </c>
       <c r="M19">
-        <v>1.068678242567503</v>
+        <v>1.023611732979992</v>
       </c>
       <c r="N19">
-        <v>1.058298773571313</v>
+        <v>1.012167802820609</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.050277253577185</v>
+        <v>0.9800712383948691</v>
       </c>
       <c r="D20">
-        <v>1.052599637899284</v>
+        <v>1.00510209415524</v>
       </c>
       <c r="E20">
-        <v>1.057072182928384</v>
+        <v>1.001073727852254</v>
       </c>
       <c r="F20">
-        <v>1.06499658942971</v>
+        <v>1.007498904576375</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038451504822412</v>
+        <v>1.037493643500287</v>
       </c>
       <c r="J20">
-        <v>1.056378748255815</v>
+        <v>1.008392600482114</v>
       </c>
       <c r="K20">
-        <v>1.055916193011007</v>
+        <v>1.019055818769197</v>
       </c>
       <c r="L20">
-        <v>1.060373720287816</v>
+        <v>1.015097723289352</v>
       </c>
       <c r="M20">
-        <v>1.06827185825871</v>
+        <v>1.021411164062232</v>
       </c>
       <c r="N20">
-        <v>1.057878927246674</v>
+        <v>1.009824633639046</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04851609565866</v>
+        <v>0.9697199654808945</v>
       </c>
       <c r="D21">
-        <v>1.051277777384332</v>
+        <v>0.9974883039334743</v>
       </c>
       <c r="E21">
-        <v>1.055631995912138</v>
+        <v>0.9932624283244795</v>
       </c>
       <c r="F21">
-        <v>1.06346790328284</v>
+        <v>0.999039444862565</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038086299495582</v>
+        <v>1.034740201696021</v>
       </c>
       <c r="J21">
-        <v>1.05501303575773</v>
+        <v>1.000540596941545</v>
       </c>
       <c r="K21">
-        <v>1.054801970419877</v>
+        <v>1.012517417922019</v>
       </c>
       <c r="L21">
-        <v>1.05914057168536</v>
+        <v>1.008372580302658</v>
       </c>
       <c r="M21">
-        <v>1.066948729134289</v>
+        <v>1.014039038135288</v>
       </c>
       <c r="N21">
-        <v>1.056511275280192</v>
+        <v>1.001961479352812</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.047407025788812</v>
+        <v>0.9629423404152527</v>
       </c>
       <c r="D22">
-        <v>1.050445081687378</v>
+        <v>0.9925149739392007</v>
       </c>
       <c r="E22">
-        <v>1.054725954245154</v>
+        <v>0.9881750406587352</v>
       </c>
       <c r="F22">
-        <v>1.062505806306683</v>
+        <v>0.9935218743040979</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037854557655327</v>
+        <v>1.032926929039453</v>
       </c>
       <c r="J22">
-        <v>1.054152263570355</v>
+        <v>0.9953998208460291</v>
       </c>
       <c r="K22">
-        <v>1.054099224086835</v>
+        <v>1.008236183403133</v>
       </c>
       <c r="L22">
-        <v>1.058364124311884</v>
+        <v>1.003984449209002</v>
       </c>
       <c r="M22">
-        <v>1.066115313298913</v>
+        <v>1.009222765826733</v>
       </c>
       <c r="N22">
-        <v>1.05564928069758</v>
+        <v>0.9968134027655857</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047995134617439</v>
+        <v>0.9665623783072832</v>
       </c>
       <c r="D23">
-        <v>1.050886661982674</v>
+        <v>0.9951700904305049</v>
       </c>
       <c r="E23">
-        <v>1.055206316925836</v>
+        <v>0.9908896114246479</v>
       </c>
       <c r="F23">
-        <v>1.063015924355589</v>
+        <v>0.9964667747505992</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037977610277258</v>
+        <v>1.033896352827065</v>
       </c>
       <c r="J23">
-        <v>1.054608775990912</v>
+        <v>0.9981454916672048</v>
       </c>
       <c r="K23">
-        <v>1.054471972603898</v>
+        <v>1.010522794092712</v>
       </c>
       <c r="L23">
-        <v>1.058775841361026</v>
+        <v>1.006326680820242</v>
       </c>
       <c r="M23">
-        <v>1.06655726802654</v>
+        <v>1.011794109162095</v>
       </c>
       <c r="N23">
-        <v>1.056106441418136</v>
+        <v>0.9995629727542605</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.050306750474734</v>
+        <v>0.9802405400623636</v>
       </c>
       <c r="D24">
-        <v>1.052621772540473</v>
+        <v>1.005226795431715</v>
       </c>
       <c r="E24">
-        <v>1.057096319113111</v>
+        <v>1.001201901659819</v>
       </c>
       <c r="F24">
-        <v>1.065022202389562</v>
+        <v>1.007637588818109</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038457591703667</v>
+        <v>1.037538496999528</v>
       </c>
       <c r="J24">
-        <v>1.056401609604421</v>
+        <v>1.008521019443453</v>
       </c>
       <c r="K24">
-        <v>1.055934836363771</v>
+        <v>1.01916274024027</v>
       </c>
       <c r="L24">
-        <v>1.060394375603333</v>
+        <v>1.015207943382817</v>
       </c>
       <c r="M24">
-        <v>1.068294015485954</v>
+        <v>1.021531894368728</v>
       </c>
       <c r="N24">
-        <v>1.057901821061018</v>
+        <v>1.00995323497004</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.052981895972063</v>
+        <v>0.9950795283037285</v>
       </c>
       <c r="D25">
-        <v>1.054628538219917</v>
+        <v>1.016176427047912</v>
       </c>
       <c r="E25">
-        <v>1.059287390987335</v>
+        <v>1.012487888921436</v>
       </c>
       <c r="F25">
-        <v>1.067346439980018</v>
+        <v>1.019833065956437</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039005407542354</v>
+        <v>1.041442961284411</v>
       </c>
       <c r="J25">
-        <v>1.058473198482194</v>
+        <v>1.019773628259102</v>
       </c>
       <c r="K25">
-        <v>1.057623047146733</v>
+        <v>1.028528709568472</v>
       </c>
       <c r="L25">
-        <v>1.062267890550889</v>
+        <v>1.024895390895256</v>
       </c>
       <c r="M25">
-        <v>1.070303019977433</v>
+        <v>1.032131107484925</v>
       </c>
       <c r="N25">
-        <v>1.059976351832612</v>
+        <v>1.0212218237809</v>
       </c>
     </row>
   </sheetData>
